--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1067,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1114,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1160,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1257,10 +1269,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1304,28 +1316,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1350,28 +1362,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1471,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1564,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1673,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1766,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1846,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1881,28 +1893,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1939,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2036,10 +2048,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2083,28 +2095,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2129,28 +2141,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2209,10 +2221,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2256,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2302,28 +2314,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2568,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2603,28 +2615,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2661,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2758,10 +2770,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2805,28 +2817,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2851,28 +2863,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2960,10 +2972,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3007,28 +3019,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3053,28 +3065,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3336,10 +3348,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3383,28 +3395,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3429,28 +3441,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3596,10 +3608,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3643,28 +3655,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3689,28 +3701,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3798,10 +3810,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3845,28 +3857,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3891,28 +3903,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4000,10 +4012,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4047,28 +4059,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4093,28 +4105,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4202,10 +4214,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4249,28 +4261,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4295,28 +4307,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4491,10 +4503,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4538,28 +4550,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4584,28 +4596,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4693,10 +4705,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4740,28 +4752,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4786,28 +4798,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4924,10 +4936,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4971,28 +4983,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5017,28 +5029,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5126,10 +5138,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5173,28 +5185,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5219,28 +5231,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5386,10 +5398,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5433,28 +5445,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5479,28 +5491,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5588,10 +5600,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5635,28 +5647,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5681,28 +5693,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5761,10 +5773,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5808,28 +5820,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5854,28 +5866,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5963,10 +5975,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6010,28 +6022,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6056,28 +6068,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6136,10 +6148,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6183,28 +6195,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6229,28 +6241,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6379,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6414,28 +6426,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6472,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6569,10 +6581,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6616,28 +6628,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6662,28 +6674,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6742,10 +6754,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6789,28 +6801,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6835,28 +6847,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7002,10 +7014,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7049,28 +7061,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7095,28 +7107,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7262,10 +7274,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7309,28 +7321,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7355,28 +7367,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7551,10 +7563,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7598,28 +7610,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7644,28 +7656,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7753,10 +7765,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7800,28 +7812,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7846,28 +7858,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7926,10 +7938,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7973,28 +7985,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8019,28 +8031,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8099,10 +8111,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8922" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -547,10 +595,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="J14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -594,28 +642,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="4">
+      <c r="A16" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="B16" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="4">
+      <c r="C16" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="4">
+      <c r="E16" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="4">
+      <c r="F16" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="4">
+      <c r="G16" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="4">
+      <c r="H16" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -640,28 +688,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="4">
+      <c r="I18" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -865,10 +913,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="J25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -912,28 +960,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="4">
+      <c r="A27" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="4">
+      <c r="C27" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="4">
+      <c r="G27" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="4">
+      <c r="H27" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -958,28 +1006,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="4">
+      <c r="C29" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="4">
+      <c r="D29" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="4">
+      <c r="I29" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1067,10 +1115,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1114,28 +1162,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="A34" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="4">
+      <c r="C34" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1160,28 +1208,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="4">
+      <c r="I36" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1269,10 +1317,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="4" t="s">
+      <c r="J39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1316,28 +1364,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="4">
+      <c r="A41" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="4">
+      <c r="B41" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="4">
+      <c r="C41" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="4">
+      <c r="E41" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="4">
+      <c r="F41" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="4">
+      <c r="G41" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="4">
+      <c r="H41" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1362,28 +1410,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="C43" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="4">
+      <c r="D43" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="4">
+      <c r="I43" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1471,10 +1519,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="4" t="s">
+      <c r="J46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1518,28 +1566,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="4">
+      <c r="A48" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="4">
+      <c r="C48" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1564,28 +1612,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="D50" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="4">
+      <c r="I50" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1673,10 +1721,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="4" t="s">
+      <c r="J53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1720,28 +1768,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="4">
+      <c r="A55" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="4">
+      <c r="C55" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1766,28 +1814,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="4">
+      <c r="B57" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="C57" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="4">
+      <c r="D57" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="4">
+      <c r="E57" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="4">
+      <c r="F57" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="4">
+      <c r="G57" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="4">
+      <c r="H57" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="4">
+      <c r="I57" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1846,10 +1894,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="4" t="s">
+      <c r="J59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1893,28 +1941,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="4">
+      <c r="C61" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1939,28 +1987,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2048,10 +2096,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="4" t="s">
+      <c r="J66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2095,28 +2143,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="4">
+      <c r="A68" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="4">
+      <c r="C68" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2141,28 +2189,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C70" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="4">
+      <c r="D70" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="4">
+      <c r="I70" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2221,10 +2269,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="4" t="s">
+      <c r="J72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2268,28 +2316,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="4">
+      <c r="A74" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="4">
+      <c r="C74" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2314,28 +2362,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="4">
+      <c r="I76" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2568,10 +2616,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="4" t="s">
+      <c r="J84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2615,28 +2663,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="4">
+      <c r="C86" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2661,28 +2709,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="4">
+      <c r="I88" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2770,10 +2818,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="4" t="s">
+      <c r="J91" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2817,28 +2865,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="4">
+      <c r="A93" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="4">
+      <c r="B93" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="4">
+      <c r="C93" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="4">
+      <c r="E93" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="4">
+      <c r="F93" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="4">
+      <c r="G93" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="4">
+      <c r="H93" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2863,28 +2911,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="4">
+      <c r="C95" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="4">
+      <c r="D95" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="4">
+      <c r="I95" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2972,10 +3020,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="4" t="s">
+      <c r="J98" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3019,28 +3067,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="4">
+      <c r="A100" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="4">
+      <c r="C100" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3065,28 +3113,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="4">
+      <c r="C102" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="4">
+      <c r="D102" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="4">
+      <c r="I102" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3348,10 +3396,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="4" t="s">
+      <c r="J111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3395,28 +3443,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="4">
+      <c r="A113" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="4">
+      <c r="C113" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3441,28 +3489,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="4">
+      <c r="I115" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3608,10 +3656,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="4" t="s">
+      <c r="J120" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3655,28 +3703,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="4">
+      <c r="A122" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="4">
+      <c r="C122" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3701,28 +3749,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="4">
+      <c r="D124" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="4">
+      <c r="I124" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3810,10 +3858,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="4" t="s">
+      <c r="J127" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3857,28 +3905,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="4">
+      <c r="A129" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="4">
+      <c r="C129" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3903,28 +3951,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="4">
+      <c r="D131" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="4">
+      <c r="I131" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4012,10 +4060,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="4" t="s">
+      <c r="J134" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4059,28 +4107,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="4">
+      <c r="A136" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="4">
+      <c r="C136" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4105,28 +4153,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="4">
+      <c r="D138" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="4">
+      <c r="I138" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4214,10 +4262,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="4" t="s">
+      <c r="J141" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4261,28 +4309,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="4">
+      <c r="A143" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="4">
+      <c r="C143" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="4">
+      <c r="E143" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="4">
+      <c r="F143" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="4">
+      <c r="G143" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="4">
+      <c r="H143" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4307,28 +4355,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="4">
+      <c r="B145" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="4">
+      <c r="C145" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="4">
+      <c r="D145" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="4">
+      <c r="E145" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="4">
+      <c r="F145" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="4">
+      <c r="G145" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="4">
+      <c r="H145" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="4">
+      <c r="I145" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4503,10 +4551,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="4" t="s">
+      <c r="J151" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4550,28 +4598,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="4">
+      <c r="A153" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="4">
+      <c r="C153" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4596,28 +4644,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="4">
+      <c r="I155" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4705,10 +4753,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="4" t="s">
+      <c r="J158" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4752,28 +4800,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="4">
+      <c r="A160" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="4">
+      <c r="C160" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4798,28 +4846,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="4">
+      <c r="C162" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="4">
+      <c r="D162" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="4">
+      <c r="I162" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4936,10 +4984,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="4" t="s">
+      <c r="J166" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4983,28 +5031,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="4">
+      <c r="C168" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5029,28 +5077,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5138,10 +5186,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="4" t="s">
+      <c r="J173" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5185,28 +5233,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="4">
+      <c r="A175" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="4">
+      <c r="B175" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="4">
+      <c r="C175" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="4">
+      <c r="E175" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="4">
+      <c r="F175" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="4">
+      <c r="G175" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="4">
+      <c r="H175" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5231,28 +5279,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="4">
+      <c r="C177" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="4">
+      <c r="D177" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="4">
+      <c r="G177" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="4">
+      <c r="H177" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="4">
+      <c r="I177" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5398,10 +5446,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="4" t="s">
+      <c r="J182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5445,28 +5493,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="4">
+      <c r="C184" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5491,28 +5539,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5600,10 +5648,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="4" t="s">
+      <c r="J189" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5647,28 +5695,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="4">
+      <c r="A191" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="4">
+      <c r="C191" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="4">
+      <c r="G191" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="4">
+      <c r="H191" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5693,28 +5741,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="4">
+      <c r="C193" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="4">
+      <c r="D193" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="4">
+      <c r="G193" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="4">
+      <c r="H193" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="4">
+      <c r="I193" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5773,10 +5821,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="4" t="s">
+      <c r="J195" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5820,28 +5868,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="4">
+      <c r="A197" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="4">
+      <c r="C197" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5866,28 +5914,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="4">
+      <c r="C199" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="4">
+      <c r="D199" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="4">
+      <c r="I199" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5975,10 +6023,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="4" t="s">
+      <c r="J202" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6022,28 +6070,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="4">
+      <c r="A204" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="4">
+      <c r="C204" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6068,28 +6116,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="4">
+      <c r="C206" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="4">
+      <c r="D206" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="4">
+      <c r="I206" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6148,10 +6196,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="4" t="s">
+      <c r="J208" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6195,28 +6243,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="4">
+      <c r="A210" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="4">
+      <c r="B210" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="4">
+      <c r="C210" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="4">
+      <c r="E210" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="4">
+      <c r="F210" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="4">
+      <c r="G210" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="4">
+      <c r="H210" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6241,28 +6289,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="4">
+      <c r="C212" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="4">
+      <c r="D212" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="4">
+      <c r="I212" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6379,10 +6427,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="4" t="s">
+      <c r="J216" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6426,28 +6474,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="4">
+      <c r="A218" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="4">
+      <c r="C218" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6472,28 +6520,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="4">
+      <c r="C220" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="4">
+      <c r="D220" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="4">
+      <c r="I220" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6581,10 +6629,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6628,28 +6676,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6674,28 +6722,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6754,10 +6802,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="4" t="s">
+      <c r="J229" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6801,28 +6849,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="4">
+      <c r="A231" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="4">
+      <c r="B231" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="4">
+      <c r="C231" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="4">
+      <c r="G231" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="4">
+      <c r="H231" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6847,28 +6895,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="4">
+      <c r="C233" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="4">
+      <c r="D233" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="4">
+      <c r="I233" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7014,10 +7062,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="4" t="s">
+      <c r="J238" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7061,28 +7109,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="4">
+      <c r="A240" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="4">
+      <c r="C240" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7107,28 +7155,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="4">
+      <c r="C242" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="4">
+      <c r="D242" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="4">
+      <c r="I242" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7274,10 +7322,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="4" t="s">
+      <c r="J247" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7321,28 +7369,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="4">
+      <c r="A249" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="4">
+      <c r="B249" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="4">
+      <c r="C249" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="4">
+      <c r="G249" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="4">
+      <c r="H249" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7367,28 +7415,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="4">
+      <c r="C251" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="4">
+      <c r="D251" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="4">
+      <c r="I251" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7563,10 +7611,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="4" t="s">
+      <c r="J257" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7610,28 +7658,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="4">
+      <c r="A259" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="4">
+      <c r="C259" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7656,28 +7704,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="4">
+      <c r="B261" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="4">
+      <c r="C261" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="4">
+      <c r="D261" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="4">
+      <c r="E261" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="4">
+      <c r="F261" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="4">
+      <c r="G261" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="4">
+      <c r="H261" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="4">
+      <c r="I261" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7765,10 +7813,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="4" t="s">
+      <c r="J264" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7812,28 +7860,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="4">
+      <c r="A266" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="4">
+      <c r="C266" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="4">
+      <c r="G266" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="4">
+      <c r="H266" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7858,28 +7906,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="4">
+      <c r="C268" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="4">
+      <c r="D268" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="4">
+      <c r="I268" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7938,10 +7986,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="4" t="s">
+      <c r="J270" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7985,28 +8033,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="4">
+      <c r="A272" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="4">
+      <c r="B272" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="4">
+      <c r="C272" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="4">
+      <c r="E272" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="4">
+      <c r="F272" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="4">
+      <c r="G272" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="4">
+      <c r="H272" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8031,28 +8079,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="4">
+      <c r="C274" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="4">
+      <c r="D274" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="4">
+      <c r="I274" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8111,10 +8159,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="4" t="s">
+      <c r="J276" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8922" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10860" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -595,10 +613,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="J14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -642,28 +660,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="12">
+      <c r="A16" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="12">
+      <c r="B16" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="12">
+      <c r="C16" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="E16" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="F16" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="12">
+      <c r="G16" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="12">
+      <c r="H16" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -688,28 +706,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="12">
+      <c r="I18" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -913,10 +931,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="12" t="s">
+      <c r="J25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -960,28 +978,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="12">
+      <c r="A27" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="12">
+      <c r="C27" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F27" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="12">
+      <c r="G27" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1006,28 +1024,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="12">
+      <c r="C29" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="12">
+      <c r="D29" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="12">
+      <c r="I29" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1115,10 +1133,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="J32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1162,28 +1180,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="12">
+      <c r="A34" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="12">
+      <c r="C34" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1208,28 +1226,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="12">
+      <c r="I36" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1317,10 +1335,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1364,28 +1382,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="12">
+      <c r="A41" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="12">
+      <c r="B41" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="12">
+      <c r="C41" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="12">
+      <c r="E41" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="12">
+      <c r="F41" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="12">
+      <c r="G41" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="12">
+      <c r="H41" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1410,28 +1428,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="12">
+      <c r="C43" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="12">
+      <c r="D43" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="12">
+      <c r="I43" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1519,10 +1537,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="12" t="s">
+      <c r="J46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1566,28 +1584,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="12">
+      <c r="A48" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="12">
+      <c r="C48" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1612,28 +1630,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="12">
+      <c r="C50" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="12">
+      <c r="D50" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="12">
+      <c r="I50" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1721,10 +1739,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="12" t="s">
+      <c r="J53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1768,28 +1786,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="12">
+      <c r="A55" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="12">
+      <c r="C55" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1814,28 +1832,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="12">
+      <c r="B57" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="12">
+      <c r="C57" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="12">
+      <c r="D57" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="12">
+      <c r="E57" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="12">
+      <c r="F57" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="12">
+      <c r="G57" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="12">
+      <c r="H57" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="12">
+      <c r="I57" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1894,10 +1912,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="J59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1941,28 +1959,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="12">
+      <c r="C61" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1987,28 +2005,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2096,10 +2114,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="12" t="s">
+      <c r="J66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2143,28 +2161,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="12">
+      <c r="A68" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="12">
+      <c r="C68" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2189,28 +2207,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="12">
+      <c r="C70" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="12">
+      <c r="D70" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="12">
+      <c r="I70" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2287,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="12" t="s">
+      <c r="J72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2316,28 +2334,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="12">
+      <c r="A74" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="12">
+      <c r="C74" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2380,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="12">
+      <c r="C76" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="12">
+      <c r="D76" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="12">
+      <c r="I76" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2616,10 +2634,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="12" t="s">
+      <c r="J84" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2663,28 +2681,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="12">
+      <c r="A86" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="12">
+      <c r="C86" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2709,28 +2727,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="12">
+      <c r="I88" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2818,10 +2836,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="12" t="s">
+      <c r="J91" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2865,28 +2883,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="12">
+      <c r="A93" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="12">
+      <c r="B93" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="12">
+      <c r="C93" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="12">
+      <c r="E93" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="12">
+      <c r="F93" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="12">
+      <c r="G93" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="12">
+      <c r="H93" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2911,28 +2929,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="12">
+      <c r="C95" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="12">
+      <c r="D95" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="12">
+      <c r="I95" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3020,10 +3038,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="12" t="s">
+      <c r="J98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3067,28 +3085,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="12">
+      <c r="A100" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="12">
+      <c r="C100" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3113,28 +3131,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="12">
+      <c r="C102" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="12">
+      <c r="D102" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="12">
+      <c r="I102" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3396,10 +3414,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="12" t="s">
+      <c r="J111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3443,28 +3461,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="12">
+      <c r="A113" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="12">
+      <c r="C113" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3489,28 +3507,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="12">
+      <c r="I115" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3656,10 +3674,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="12" t="s">
+      <c r="J120" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3703,28 +3721,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="12">
+      <c r="A122" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="12">
+      <c r="C122" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3749,28 +3767,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="12">
+      <c r="D124" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="12">
+      <c r="I124" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3858,10 +3876,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="12" t="s">
+      <c r="J127" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3905,28 +3923,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="12">
+      <c r="A129" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="12">
+      <c r="C129" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3951,28 +3969,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="12">
+      <c r="C131" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="12">
+      <c r="D131" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="12">
+      <c r="I131" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4060,10 +4078,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="12" t="s">
+      <c r="J134" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4107,28 +4125,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="12">
+      <c r="A136" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="12">
+      <c r="C136" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4153,28 +4171,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C138" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D138" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="12">
+      <c r="I138" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4262,10 +4280,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="12" t="s">
+      <c r="J141" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4309,28 +4327,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="12">
+      <c r="A143" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="12">
+      <c r="B143" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="12">
+      <c r="C143" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E143" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="12">
+      <c r="F143" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="12">
+      <c r="G143" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="12">
+      <c r="H143" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4355,28 +4373,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="12">
+      <c r="B145" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="12">
+      <c r="C145" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="12">
+      <c r="D145" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="12">
+      <c r="E145" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="12">
+      <c r="F145" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="12">
+      <c r="G145" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="12">
+      <c r="H145" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="12">
+      <c r="I145" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4551,10 +4569,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="12" t="s">
+      <c r="J151" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4598,28 +4616,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="12">
+      <c r="A153" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="12">
+      <c r="C153" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4644,28 +4662,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="12">
+      <c r="I155" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4753,10 +4771,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="12" t="s">
+      <c r="J158" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4800,28 +4818,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="12">
+      <c r="A160" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="12">
+      <c r="C160" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4846,28 +4864,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="12">
+      <c r="C162" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="12">
+      <c r="D162" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="12">
+      <c r="I162" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4984,10 +5002,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="12" t="s">
+      <c r="J166" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5031,28 +5049,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="12">
+      <c r="C168" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5077,28 +5095,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5186,10 +5204,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="12" t="s">
+      <c r="J173" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5233,28 +5251,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="12">
+      <c r="A175" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="12">
+      <c r="B175" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="12">
+      <c r="C175" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="12">
+      <c r="E175" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="12">
+      <c r="F175" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="12">
+      <c r="G175" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="12">
+      <c r="H175" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5279,28 +5297,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="12">
+      <c r="C177" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="12">
+      <c r="D177" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="12">
+      <c r="E177" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="12">
+      <c r="F177" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="12">
+      <c r="G177" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="12">
+      <c r="H177" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="12">
+      <c r="I177" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5446,10 +5464,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="12" t="s">
+      <c r="J182" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5493,28 +5511,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="12">
+      <c r="C184" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5539,28 +5557,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5648,10 +5666,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="12" t="s">
+      <c r="J189" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5695,28 +5713,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="12">
+      <c r="A191" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="12">
+      <c r="C191" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="12">
+      <c r="E191" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="12">
+      <c r="F191" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="12">
+      <c r="G191" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="12">
+      <c r="H191" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5741,28 +5759,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="12">
+      <c r="B193" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="12">
+      <c r="C193" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="12">
+      <c r="D193" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="12">
+      <c r="F193" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="12">
+      <c r="G193" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="12">
+      <c r="H193" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="12">
+      <c r="I193" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5821,10 +5839,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="12" t="s">
+      <c r="J195" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5868,28 +5886,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="12">
+      <c r="A197" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="12">
+      <c r="C197" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5914,28 +5932,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="12">
+      <c r="C199" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="12">
+      <c r="D199" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="12">
+      <c r="I199" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6023,10 +6041,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="12" t="s">
+      <c r="J202" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6070,28 +6088,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="12">
+      <c r="A204" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="12">
+      <c r="C204" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6116,28 +6134,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="12">
+      <c r="C206" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="12">
+      <c r="D206" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="12">
+      <c r="I206" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6196,10 +6214,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="12" t="s">
+      <c r="J208" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6243,28 +6261,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="12">
+      <c r="A210" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="12">
+      <c r="B210" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="12">
+      <c r="C210" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="12">
+      <c r="E210" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="12">
+      <c r="F210" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="12">
+      <c r="G210" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="12">
+      <c r="H210" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6289,28 +6307,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="12">
+      <c r="C212" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="12">
+      <c r="D212" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="12">
+      <c r="I212" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6427,10 +6445,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="12" t="s">
+      <c r="J216" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6474,28 +6492,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="12">
+      <c r="A218" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="12">
+      <c r="C218" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6520,28 +6538,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="12">
+      <c r="C220" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="12">
+      <c r="D220" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="12">
+      <c r="I220" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6629,10 +6647,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6676,28 +6694,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6722,28 +6740,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6802,10 +6820,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="12" t="s">
+      <c r="J229" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6849,28 +6867,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="12">
+      <c r="A231" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="12">
+      <c r="B231" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="12">
+      <c r="C231" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="12">
+      <c r="E231" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="12">
+      <c r="F231" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="12">
+      <c r="G231" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="12">
+      <c r="H231" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6895,28 +6913,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="12">
+      <c r="C233" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="12">
+      <c r="D233" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="12">
+      <c r="I233" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7062,10 +7080,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="12" t="s">
+      <c r="J238" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7109,28 +7127,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="12">
+      <c r="A240" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="12">
+      <c r="C240" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7155,28 +7173,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="12">
+      <c r="C242" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="12">
+      <c r="D242" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="12">
+      <c r="I242" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7322,10 +7340,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="12" t="s">
+      <c r="J247" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7369,28 +7387,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="12">
+      <c r="A249" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="12">
+      <c r="C249" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="12">
+      <c r="E249" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="12">
+      <c r="F249" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="12">
+      <c r="G249" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="12">
+      <c r="H249" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7415,28 +7433,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="12">
+      <c r="C251" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="12">
+      <c r="D251" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="12">
+      <c r="I251" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7611,10 +7629,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="12" t="s">
+      <c r="J257" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7658,28 +7676,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="12">
+      <c r="A259" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="12">
+      <c r="C259" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7704,28 +7722,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="12">
+      <c r="B261" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="12">
+      <c r="C261" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="12">
+      <c r="D261" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="12">
+      <c r="E261" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="12">
+      <c r="F261" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="12">
+      <c r="G261" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="12">
+      <c r="H261" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="12">
+      <c r="I261" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7813,10 +7831,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="12" t="s">
+      <c r="J264" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7860,28 +7878,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="12">
+      <c r="A266" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="12">
+      <c r="C266" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="12">
+      <c r="E266" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="12">
+      <c r="F266" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="12">
+      <c r="G266" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="12">
+      <c r="H266" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7906,28 +7924,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="12">
+      <c r="C268" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="12">
+      <c r="D268" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="12">
+      <c r="I268" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7986,10 +8004,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="12" t="s">
+      <c r="J270" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -8033,28 +8051,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="12">
+      <c r="A272" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="12">
+      <c r="B272" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="12">
+      <c r="C272" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="12">
+      <c r="E272" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="12">
+      <c r="F272" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="12">
+      <c r="G272" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="12">
+      <c r="H272" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8079,28 +8097,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="12">
+      <c r="C274" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="12">
+      <c r="D274" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="12">
+      <c r="I274" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8159,10 +8177,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="12" t="s">
+      <c r="J276" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
